--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47154.24953048118</v>
+        <v>-24652.22449172985</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1838381.564971835</v>
+        <v>4876776.861364608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24149324.05685093</v>
+        <v>23095069.95958771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4625790.886331913</v>
+        <v>4914831.618615588</v>
       </c>
     </row>
     <row r="11">
@@ -8690,25 +8692,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L11" t="n">
-        <v>215.1060201295988</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M11" t="n">
-        <v>200.3199103700811</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N11" t="n">
-        <v>197.8755926931642</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O11" t="n">
-        <v>203.2816633332895</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>128.4574862423794</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L12" t="n">
-        <v>115.6425992455544</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>115.4591779348292</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P12" t="n">
-        <v>116.4907560372702</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L14" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M14" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N14" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O14" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L15" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K17" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L17" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M17" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N17" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O17" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L18" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L20" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M20" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N20" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O20" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P20" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L21" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N22" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K23" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L23" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M23" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N23" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O23" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L24" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M24" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M25" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N25" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K26" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L26" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M26" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N26" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O26" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L27" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M27" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L29" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M29" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N29" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O29" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P29" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L30" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M30" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K32" t="n">
-        <v>210.0462273461148</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L32" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454964</v>
       </c>
       <c r="M32" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573625</v>
       </c>
       <c r="N32" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O32" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918273</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166346</v>
       </c>
       <c r="L33" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M33" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K35" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L35" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M35" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N35" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O35" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L36" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M36" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K38" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L38" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M38" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N38" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O38" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L39" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M39" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L41" t="n">
-        <v>215.1060201295988</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M41" t="n">
-        <v>200.3199103700811</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N41" t="n">
-        <v>197.8755926931642</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O41" t="n">
-        <v>203.2816633332895</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>128.4574862423794</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L42" t="n">
-        <v>115.6425992455544</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M42" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>116.4907560372702</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>97.38162427947184</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>83.42355640483248</v>
       </c>
       <c r="L44" t="n">
-        <v>215.1060201295988</v>
+        <v>58.01940008446331</v>
       </c>
       <c r="M44" t="n">
-        <v>200.3199103700812</v>
+        <v>25.53077821856496</v>
       </c>
       <c r="N44" t="n">
-        <v>197.8755926931642</v>
+        <v>20.25818964702478</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2816633332895</v>
+        <v>35.5625862733917</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>72.86822951172195</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>114.085400487321</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,28 +11375,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>81.18949827734528</v>
       </c>
       <c r="K45" t="n">
-        <v>128.4574862423794</v>
+        <v>42.4537780023314</v>
       </c>
       <c r="L45" t="n">
-        <v>115.6425992455544</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>111.0955404568352</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>96.27980096165827</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.4591779348292</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>116.4907560372702</v>
+        <v>14.78693852483815</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>71.40126228781628</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>67.52371566667536</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>67.17903279110968</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>55.89865382137701</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>76.66374565676749</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.7852877910533</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4797883449514</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I11" t="n">
-        <v>238.9709136375527</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J11" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>191.5594972221508</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S11" t="n">
-        <v>226.3118737107229</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T11" t="n">
-        <v>222.2343765611613</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4622442034314</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I12" t="n">
-        <v>106.3891819146546</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J12" t="n">
-        <v>49.80181311049407</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>132.9629628724363</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S12" t="n">
-        <v>191.0652043902942</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T12" t="n">
-        <v>214.8568706212155</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H13" t="n">
-        <v>165.6134833541297</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I13" t="n">
-        <v>164.1395687773966</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J13" t="n">
-        <v>118.5624291419324</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K13" t="n">
-        <v>64.27386075180667</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L13" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>55.60947430480697</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.2305528121096</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R13" t="n">
-        <v>202.3633127604856</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S13" t="n">
-        <v>235.0246264580731</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T13" t="n">
-        <v>223.6601988171407</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I14" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J14" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S14" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T14" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I15" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J15" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S15" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T15" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H16" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I16" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J16" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K16" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L16" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R16" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S16" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T16" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I17" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J17" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S17" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T17" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I18" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J18" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S18" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T18" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H19" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I19" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J19" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K19" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L19" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R19" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S19" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I20" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J20" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S20" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T20" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I21" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J21" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S21" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T21" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H22" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I22" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J22" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K22" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L22" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R22" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S22" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T22" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I23" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J23" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S23" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T23" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I24" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J24" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S24" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T24" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H25" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I25" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K25" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L25" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R25" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S25" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T25" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I26" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J26" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24482,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S26" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T26" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I27" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J27" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S27" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T27" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H28" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I28" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J28" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K28" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L28" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R28" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S28" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T28" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H29" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I29" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J29" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24719,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S29" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T29" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I30" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J30" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S30" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T30" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H31" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I31" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J31" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K31" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L31" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R31" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S31" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T31" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I32" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J32" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S32" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T32" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I33" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J33" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S33" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T33" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H34" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I34" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J34" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K34" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L34" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R34" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S34" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T34" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I35" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J35" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25193,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S35" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T35" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I36" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J36" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S36" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T36" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H37" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I37" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J37" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K37" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L37" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R37" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S37" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T37" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I38" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J38" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25430,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S38" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T38" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I39" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J39" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S39" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T39" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H40" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I40" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J40" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K40" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L40" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R40" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S40" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T40" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.7852877910533</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H41" t="n">
-        <v>346.4797883449514</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I41" t="n">
-        <v>238.9709136375527</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J41" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>191.5594972221508</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S41" t="n">
-        <v>226.3118737107229</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T41" t="n">
-        <v>222.2343765611613</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7163084132398</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4622442034314</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I42" t="n">
-        <v>106.3891819146546</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J42" t="n">
-        <v>49.80181311049407</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>132.9629628724363</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S42" t="n">
-        <v>191.0652043902942</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T42" t="n">
-        <v>214.8568706212155</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H43" t="n">
-        <v>165.6134833541297</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I43" t="n">
-        <v>164.1395687773966</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J43" t="n">
-        <v>118.5624291419324</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K43" t="n">
-        <v>64.27386075180667</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L43" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>55.60947430480697</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.2305528121096</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R43" t="n">
-        <v>202.3633127604856</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S43" t="n">
-        <v>235.0246264580731</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T43" t="n">
-        <v>223.6601988171407</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.7852877910533</v>
+        <v>417.7898558879744</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4797883449514</v>
+        <v>336.2853213675438</v>
       </c>
       <c r="I44" t="n">
-        <v>238.9709136375527</v>
+        <v>200.5945251941005</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29305613191724</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25904,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>191.5594972221508</v>
+        <v>129.0301979403661</v>
       </c>
       <c r="S44" t="n">
-        <v>226.3118737107229</v>
+        <v>203.6284692193107</v>
       </c>
       <c r="T44" t="n">
-        <v>222.2343765611613</v>
+        <v>217.8768734054331</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0666761266758</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7163084132398</v>
+        <v>148.1837053907575</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4622442034314</v>
+        <v>120.3184202757733</v>
       </c>
       <c r="I45" t="n">
-        <v>106.3891819146546</v>
+        <v>88.05175328971565</v>
       </c>
       <c r="J45" t="n">
-        <v>49.80181311049407</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>132.9629628724363</v>
+        <v>99.89485591515788</v>
       </c>
       <c r="S45" t="n">
-        <v>191.0652043902942</v>
+        <v>181.1723368455023</v>
       </c>
       <c r="T45" t="n">
-        <v>214.8568706212155</v>
+        <v>212.7101066841048</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1911682413709</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6770524598119</v>
+        <v>168.2305359770579</v>
       </c>
       <c r="H46" t="n">
-        <v>165.6134833541297</v>
+        <v>161.6435458983708</v>
       </c>
       <c r="I46" t="n">
-        <v>164.1395687773966</v>
+        <v>150.711600368756</v>
       </c>
       <c r="J46" t="n">
-        <v>118.5624291419324</v>
+        <v>86.99371381121945</v>
       </c>
       <c r="K46" t="n">
-        <v>64.27386075180667</v>
+        <v>12.39676393728799</v>
       </c>
       <c r="L46" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>55.60947430480697</v>
+        <v>1.605335336077985</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.2305528121096</v>
+        <v>87.84088624258442</v>
       </c>
       <c r="R46" t="n">
-        <v>202.3633127604856</v>
+        <v>182.2863079995616</v>
       </c>
       <c r="S46" t="n">
-        <v>235.0246264580731</v>
+        <v>227.2430619358953</v>
       </c>
       <c r="T46" t="n">
-        <v>223.6601988171407</v>
+        <v>221.7523556635551</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6309075712877</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>411734.9229450857</v>
+        <v>444533.8932941753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411734.9229450857</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>411734.9229450857</v>
+        <v>445908.5976776657</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>47596.52802258005</v>
       </c>
       <c r="E2" t="n">
-        <v>55526.77943443631</v>
+        <v>63152.52972518813</v>
       </c>
       <c r="F2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="G2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="H2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="I2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="J2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="K2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="L2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="M2" t="n">
-        <v>55526.7794344363</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="N2" t="n">
-        <v>55526.7794344363</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="O2" t="n">
-        <v>55526.77943443631</v>
+        <v>63420.63831507431</v>
       </c>
       <c r="P2" t="n">
-        <v>55526.77943443629</v>
+        <v>63845.30909099025</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91850.30972755932</v>
+        <v>262073.8944185649</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10854.33430881218</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14645.03701041946</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>42308.02490896005</v>
       </c>
       <c r="E4" t="n">
-        <v>35386.75122279504</v>
+        <v>16500.08071234462</v>
       </c>
       <c r="F4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="G4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="H4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="I4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="J4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="K4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="L4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="M4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="N4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="O4" t="n">
-        <v>35386.75122279504</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="P4" t="n">
-        <v>35386.75122279504</v>
+        <v>13179.28050539854</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2492.319237121088</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="F5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="G5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="H5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="I5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="J5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="K5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="L5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="M5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="N5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="O5" t="n">
-        <v>2492.319237121088</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="P5" t="n">
-        <v>2492.319237121088</v>
+        <v>7890.297589542603</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28339.09688638001</v>
+        <v>-28339.09688638</v>
       </c>
       <c r="C6" t="n">
-        <v>-28339.09688638001</v>
+        <v>-28339.09688638</v>
       </c>
       <c r="D6" t="n">
-        <v>-28339.09688638001</v>
+        <v>-28339.09688638</v>
       </c>
       <c r="E6" t="n">
-        <v>-74202.60075303914</v>
+        <v>-222532.7094890329</v>
       </c>
       <c r="F6" t="n">
-        <v>17647.70897452018</v>
+        <v>29966.6809048515</v>
       </c>
       <c r="G6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="H6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="I6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="J6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="K6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="L6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="M6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="N6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="O6" t="n">
-        <v>17647.70897452018</v>
+        <v>40821.01521366368</v>
       </c>
       <c r="P6" t="n">
-        <v>17647.70897452017</v>
+        <v>28130.69398562964</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>114.3265705101416</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="G3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="H3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="I3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="J3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="K3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="M3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="N3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="O3" t="n">
-        <v>114.3265705101416</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3265705101416</v>
+        <v>361.9402564010368</v>
       </c>
     </row>
     <row r="4">
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>114.3265705101416</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>13.73192860833097</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>22.00355332887523</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.459604303558358</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H11" t="n">
-        <v>4.706922573817035</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I11" t="n">
-        <v>17.71889491293361</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J11" t="n">
-        <v>39.00834075913622</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L11" t="n">
-        <v>72.52900613378564</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M11" t="n">
-        <v>80.70249416719159</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N11" t="n">
-        <v>82.00834489467678</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O11" t="n">
-        <v>77.43815460116835</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P11" t="n">
-        <v>66.09167335707137</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.63209423588766</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R11" t="n">
-        <v>28.87061883339773</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S11" t="n">
-        <v>10.47323306733609</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T11" t="n">
-        <v>2.011917838826713</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H12" t="n">
-        <v>2.374972719465395</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I12" t="n">
-        <v>8.466637533062377</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J12" t="n">
-        <v>23.23310052225435</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K12" t="n">
-        <v>39.70906930633853</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L12" t="n">
-        <v>53.3937440858921</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M12" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>58.50824028739296</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P12" t="n">
-        <v>46.95802100821271</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.39019347289776</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R12" t="n">
-        <v>15.26798992586383</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S12" t="n">
-        <v>4.56767005764575</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T12" t="n">
-        <v>0.991189795271888</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H13" t="n">
-        <v>1.832973540310141</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I13" t="n">
-        <v>6.199873692582764</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J13" t="n">
-        <v>14.57570063700609</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K13" t="n">
-        <v>23.95235362491163</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L13" t="n">
-        <v>30.65076613316158</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M13" t="n">
-        <v>32.31693533289134</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N13" t="n">
-        <v>31.5485108425773</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O13" t="n">
-        <v>29.14015603756857</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P13" t="n">
-        <v>24.93443760765448</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.26331214703139</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R13" t="n">
-        <v>9.269823241691153</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S13" t="n">
-        <v>3.592853043736744</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H14" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I14" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J14" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L14" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M14" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N14" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O14" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P14" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R14" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S14" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T14" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H15" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I15" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J15" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K15" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L15" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M15" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R15" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S15" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T15" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H16" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I16" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J16" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K16" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L16" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M16" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N16" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O16" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P16" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R16" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S16" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H17" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I17" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J17" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L17" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M17" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N17" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O17" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P17" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R17" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S17" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T17" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H18" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I18" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J18" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K18" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L18" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M18" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R18" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S18" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T18" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H19" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I19" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J19" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K19" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L19" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M19" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N19" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O19" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P19" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R19" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S19" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H20" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I20" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J20" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L20" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M20" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N20" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O20" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P20" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q20" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R20" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S20" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T20" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H21" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I21" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J21" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K21" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L21" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M21" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N21" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R21" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S21" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T21" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H22" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I22" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J22" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K22" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L22" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M22" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N22" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O22" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P22" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R22" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S22" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H23" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I23" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J23" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L23" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M23" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N23" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O23" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P23" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R23" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S23" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T23" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H24" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I24" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J24" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K24" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L24" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M24" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N24" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R24" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S24" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T24" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H25" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I25" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J25" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K25" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L25" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M25" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N25" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O25" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P25" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R25" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S25" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H26" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I26" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J26" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L26" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M26" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N26" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O26" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P26" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R26" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S26" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T26" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H27" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I27" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J27" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K27" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L27" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M27" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R27" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S27" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T27" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H28" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I28" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J28" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K28" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L28" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M28" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N28" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O28" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P28" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R28" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S28" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H29" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I29" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J29" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L29" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M29" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N29" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O29" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P29" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R29" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S29" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T29" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H30" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I30" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J30" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K30" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L30" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M30" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R30" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S30" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T30" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H31" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I31" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J31" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K31" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L31" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M31" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N31" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O31" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P31" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R31" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S31" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H32" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I32" t="n">
-        <v>17.71889491293361</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J32" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L32" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M32" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N32" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O32" t="n">
-        <v>77.43815460116835</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P32" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R32" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S32" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T32" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214622</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H33" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I33" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J33" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K33" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L33" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M33" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R33" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S33" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T33" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H34" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I34" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J34" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K34" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L34" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M34" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N34" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O34" t="n">
-        <v>29.14015603756857</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P34" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.26331214703139</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R34" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H35" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I35" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J35" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L35" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M35" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N35" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O35" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P35" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R35" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S35" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T35" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H36" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I36" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J36" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K36" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L36" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M36" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R36" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S36" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T36" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H37" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I37" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J37" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K37" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L37" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M37" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N37" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O37" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P37" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R37" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H38" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I38" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J38" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L38" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M38" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N38" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O38" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P38" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R38" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S38" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T38" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H39" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I39" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J39" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K39" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L39" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M39" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R39" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S39" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T39" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H40" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I40" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J40" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K40" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L40" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M40" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N40" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O40" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P40" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R40" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.459604303558358</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H41" t="n">
-        <v>4.706922573817035</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I41" t="n">
-        <v>17.71889491293361</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J41" t="n">
-        <v>39.00834075913622</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L41" t="n">
-        <v>72.52900613378564</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M41" t="n">
-        <v>80.70249416719159</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N41" t="n">
-        <v>82.00834489467678</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O41" t="n">
-        <v>77.43815460116835</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P41" t="n">
-        <v>66.09167335707137</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q41" t="n">
-        <v>49.63209423588766</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R41" t="n">
-        <v>28.87061883339773</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S41" t="n">
-        <v>10.47323306733609</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T41" t="n">
-        <v>2.011917838826713</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H42" t="n">
-        <v>2.374972719465395</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I42" t="n">
-        <v>8.466637533062377</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J42" t="n">
-        <v>23.23310052225435</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K42" t="n">
-        <v>39.70906930633853</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L42" t="n">
-        <v>53.3937440858921</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M42" t="n">
-        <v>62.30798092802718</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>46.95802100821271</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.39019347289776</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R42" t="n">
-        <v>15.26798992586383</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S42" t="n">
-        <v>4.56767005764575</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T42" t="n">
-        <v>0.991189795271888</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H43" t="n">
-        <v>1.832973540310141</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I43" t="n">
-        <v>6.199873692582764</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J43" t="n">
-        <v>14.57570063700609</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K43" t="n">
-        <v>23.95235362491163</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L43" t="n">
-        <v>30.65076613316158</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M43" t="n">
-        <v>32.31693533289134</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N43" t="n">
-        <v>31.5485108425773</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O43" t="n">
-        <v>29.14015603756857</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P43" t="n">
-        <v>24.93443760765448</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.26331214703139</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R43" t="n">
-        <v>9.269823241691153</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592853043736744</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.459604303558358</v>
+        <v>1.455036206637333</v>
       </c>
       <c r="H44" t="n">
-        <v>4.706922573817035</v>
+        <v>14.90138955122459</v>
       </c>
       <c r="I44" t="n">
-        <v>17.71889491293361</v>
+        <v>56.09528335638583</v>
       </c>
       <c r="J44" t="n">
-        <v>39.00834075913622</v>
+        <v>123.4943792430854</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>185.0860618700438</v>
       </c>
       <c r="L44" t="n">
-        <v>72.52900613378564</v>
+        <v>229.6156261789211</v>
       </c>
       <c r="M44" t="n">
-        <v>80.70249416719157</v>
+        <v>255.4916263187078</v>
       </c>
       <c r="N44" t="n">
-        <v>82.00834489467677</v>
+        <v>259.6257479408162</v>
       </c>
       <c r="O44" t="n">
-        <v>77.43815460116835</v>
+        <v>245.1572316610661</v>
       </c>
       <c r="P44" t="n">
-        <v>66.09167335707137</v>
+        <v>209.2360253097069</v>
       </c>
       <c r="Q44" t="n">
-        <v>49.63209423588766</v>
+        <v>157.1275411595074</v>
       </c>
       <c r="R44" t="n">
-        <v>28.87061883339773</v>
+        <v>91.39991811518244</v>
       </c>
       <c r="S44" t="n">
-        <v>10.47323306733609</v>
+        <v>33.15663755874826</v>
       </c>
       <c r="T44" t="n">
-        <v>2.011917838826713</v>
+        <v>6.369420994554928</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.1164028965309866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.7785130043343056</v>
       </c>
       <c r="H45" t="n">
-        <v>2.374972719465396</v>
+        <v>7.518796647123428</v>
       </c>
       <c r="I45" t="n">
-        <v>8.466637533062377</v>
+        <v>26.80406615800132</v>
       </c>
       <c r="J45" t="n">
-        <v>23.23310052225435</v>
+        <v>73.55240625598807</v>
       </c>
       <c r="K45" t="n">
-        <v>39.70906930633854</v>
+        <v>125.7127775463865</v>
       </c>
       <c r="L45" t="n">
-        <v>53.3937440858921</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
-        <v>62.30798092802719</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>58.50824028739296</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>46.9580210082127</v>
+        <v>148.6618385206447</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.39019347289776</v>
+        <v>99.37650209712999</v>
       </c>
       <c r="R45" t="n">
-        <v>15.26798992586383</v>
+        <v>48.33609688314225</v>
       </c>
       <c r="S45" t="n">
-        <v>4.56767005764575</v>
+        <v>14.46053760243764</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9911897952718879</v>
+        <v>3.137953732382573</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.0512179608114675</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.6526791508871155</v>
       </c>
       <c r="H46" t="n">
-        <v>1.832973540310141</v>
+        <v>5.802910996069087</v>
       </c>
       <c r="I46" t="n">
-        <v>6.199873692582764</v>
+        <v>19.62784210122345</v>
       </c>
       <c r="J46" t="n">
-        <v>14.57570063700609</v>
+        <v>46.14441596771907</v>
       </c>
       <c r="K46" t="n">
-        <v>23.95235362491163</v>
+        <v>75.82945043943032</v>
       </c>
       <c r="L46" t="n">
-        <v>30.65076613316158</v>
+        <v>97.03558939643536</v>
       </c>
       <c r="M46" t="n">
-        <v>32.31693533289134</v>
+        <v>102.3104236249685</v>
       </c>
       <c r="N46" t="n">
-        <v>31.5485108425773</v>
+        <v>99.87771042620749</v>
       </c>
       <c r="O46" t="n">
-        <v>29.14015603756857</v>
+        <v>92.2532312544807</v>
       </c>
       <c r="P46" t="n">
-        <v>24.93443760765448</v>
+        <v>78.93857657638347</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.26331214703139</v>
+        <v>54.65297871655656</v>
       </c>
       <c r="R46" t="n">
-        <v>9.269823241691153</v>
+        <v>29.34682800261521</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592853043736745</v>
+        <v>11.37441756591454</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.788720008335857</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03560068095747907</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24652.22449172985</v>
+        <v>-155922.2779013362</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4876776.861364608</v>
+        <v>4868043.802225461</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23095069.95958771</v>
+        <v>23096809.53943248</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4914831.618615588</v>
+        <v>4914779.946250714</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K11" t="n">
-        <v>101.6976762459175</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L11" t="n">
-        <v>80.69006165554137</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M11" t="n">
-        <v>50.75625738522407</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N11" t="n">
-        <v>45.89184343902701</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O11" t="n">
-        <v>59.7677186643362</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P11" t="n">
-        <v>93.52675000186332</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q11" t="n">
-        <v>129.5990890302214</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>54.86578968612498</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L12" t="n">
-        <v>16.68948144623957</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7.027508785057847</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.46478203976346</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.21301196989599</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>77.10433979128307</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M13" t="n">
-        <v>77.2804576278842</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N13" t="n">
-        <v>65.75988935332771</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O13" t="n">
-        <v>85.77219275774588</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8929,22 +8929,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K14" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L14" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M14" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N14" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O14" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P14" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q14" t="n">
         <v>123.6377068975464</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L15" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M16" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N16" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O16" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9166,22 +9166,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K17" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L17" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M17" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N17" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O17" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P17" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q17" t="n">
         <v>123.6377068975464</v>
@@ -9245,10 +9245,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L18" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M19" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N19" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O19" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9403,22 +9403,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K20" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L20" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M20" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N20" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O20" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P20" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q20" t="n">
         <v>123.6377068975464</v>
@@ -9482,10 +9482,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L21" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M22" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N22" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O22" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9640,22 +9640,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K23" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L23" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M23" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N23" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O23" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P23" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q23" t="n">
         <v>123.6377068975464</v>
@@ -9719,10 +9719,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L24" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M25" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N25" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O25" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9877,22 +9877,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K26" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L26" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M26" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N26" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O26" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P26" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q26" t="n">
         <v>123.6377068975464</v>
@@ -9956,10 +9956,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L27" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M28" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N28" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O28" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,22 +10114,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K29" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L29" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M29" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N29" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O29" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P29" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q29" t="n">
         <v>123.6377068975464</v>
@@ -10193,10 +10193,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L30" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M31" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N31" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O31" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10354,19 +10354,19 @@
         <v>94.6755543817487</v>
       </c>
       <c r="L32" t="n">
-        <v>71.97849854454964</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M32" t="n">
-        <v>41.06296488573625</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N32" t="n">
         <v>36.04170333287215</v>
       </c>
       <c r="O32" t="n">
-        <v>50.46651067918273</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P32" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q32" t="n">
         <v>123.6377068975464</v>
@@ -10430,7 +10430,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>50.09627633166346</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L33" t="n">
         <v>10.27628214666007</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q33" t="n">
         <v>77.442690741435</v>
@@ -10588,22 +10588,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K35" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L35" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M35" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N35" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O35" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P35" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q35" t="n">
         <v>123.6377068975464</v>
@@ -10667,10 +10667,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L36" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M37" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N37" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O37" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10825,22 +10825,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K38" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L38" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M38" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N38" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O38" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P38" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q38" t="n">
         <v>123.6377068975464</v>
@@ -10904,10 +10904,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L39" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M40" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N40" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O40" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,22 +11062,22 @@
         <v>104.889258789408</v>
       </c>
       <c r="K41" t="n">
-        <v>94.67555438174873</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L41" t="n">
-        <v>71.97849854454967</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M41" t="n">
-        <v>41.06296488573628</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N41" t="n">
-        <v>36.04170333287217</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O41" t="n">
-        <v>50.46651067918276</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P41" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q41" t="n">
         <v>123.6377068975464</v>
@@ -11141,10 +11141,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>50.09627633166347</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L42" t="n">
-        <v>10.27628214666009</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.44269074143502</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>73.4228322427479</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M43" t="n">
-        <v>73.39882410340141</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N43" t="n">
-        <v>61.97055239817958</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O43" t="n">
-        <v>82.2721267577077</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>97.38162427947184</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K44" t="n">
-        <v>83.42355640483248</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L44" t="n">
-        <v>58.01940008446331</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M44" t="n">
-        <v>25.53077821856496</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N44" t="n">
-        <v>20.25818964702478</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O44" t="n">
-        <v>35.5625862733917</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P44" t="n">
-        <v>72.86822951172195</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.085400487321</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.18949827734528</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>42.4537780023314</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>14.78693852483815</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.40126228781628</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>67.52371566667536</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M46" t="n">
-        <v>67.17903279110968</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N46" t="n">
-        <v>55.89865382137701</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O46" t="n">
-        <v>76.66374565676749</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23272,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.9335161168677</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H11" t="n">
-        <v>337.7565816866972</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I11" t="n">
-        <v>206.1329861685091</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.0543947935843</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9021266852166</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T11" t="n">
-        <v>218.5057460574135</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2605703896413</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H12" t="n">
-        <v>121.0607743439406</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I12" t="n">
-        <v>90.69820171619743</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J12" t="n">
-        <v>6.744564135339203</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>104.6672283897153</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S12" t="n">
-        <v>182.6000704870501</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T12" t="n">
-        <v>213.0199265699567</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.2949770100594</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2164852645116</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I13" t="n">
-        <v>152.6495179793835</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J13" t="n">
-        <v>91.54969484442688</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K13" t="n">
-        <v>19.88364031691904</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.399185363825367</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.23694401510255</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R13" t="n">
-        <v>185.183811174339</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S13" t="n">
-        <v>228.3660933928399</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T13" t="n">
-        <v>222.0276946227434</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23676,10 +23676,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J16" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K16" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q16" t="n">
         <v>91.16342279524457</v>
@@ -23913,10 +23913,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J19" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K19" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q19" t="n">
         <v>91.16342279524457</v>
@@ -24150,10 +24150,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J22" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K22" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q22" t="n">
         <v>91.16342279524457</v>
@@ -24387,10 +24387,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J25" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K25" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q25" t="n">
         <v>91.16342279524457</v>
@@ -24624,10 +24624,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J28" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K28" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q28" t="n">
         <v>91.16342279524457</v>
@@ -24861,10 +24861,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J31" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K31" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q31" t="n">
         <v>91.16342279524457</v>
@@ -25098,7 +25098,7 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J34" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K34" t="n">
         <v>17.00668871668184</v>
@@ -25335,10 +25335,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J37" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K37" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q37" t="n">
         <v>91.16342279524457</v>
@@ -25572,10 +25572,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J40" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K40" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q40" t="n">
         <v>91.16342279524457</v>
@@ -25809,10 +25809,10 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J43" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K43" t="n">
-        <v>17.00668871668185</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.404274245706773</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q43" t="n">
         <v>91.16342279524457</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.7898558879744</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H44" t="n">
-        <v>336.2853213675438</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I44" t="n">
-        <v>200.5945251941005</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>129.0301979403661</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S44" t="n">
-        <v>203.6284692193107</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8768734054331</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0666761266758</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1837053907575</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3184202757733</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I45" t="n">
-        <v>88.05175328971565</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>99.89485591515788</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S45" t="n">
-        <v>181.1723368455023</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T45" t="n">
-        <v>212.7101066841048</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1911682413709</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2305359770579</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6435458983708</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I46" t="n">
-        <v>150.711600368756</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J46" t="n">
-        <v>86.99371381121945</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K46" t="n">
-        <v>12.39676393728799</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.605335336077985</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.84088624258442</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R46" t="n">
-        <v>182.2863079995616</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S46" t="n">
-        <v>227.2430619358953</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T46" t="n">
-        <v>221.7523556635551</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6309075712877</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444533.8932941753</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>445908.5976776657</v>
+        <v>445039.9959988301</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>47596.52802258005</v>
       </c>
       <c r="E2" t="n">
-        <v>63152.52972518813</v>
+        <v>63420.6383150743</v>
       </c>
       <c r="F2" t="n">
         <v>63420.63831507431</v>
       </c>
       <c r="G2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.6383150743</v>
       </c>
       <c r="H2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.6383150743</v>
       </c>
       <c r="I2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.6383150743</v>
       </c>
       <c r="J2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.6383150743</v>
       </c>
       <c r="K2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.6383150743</v>
       </c>
       <c r="L2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.63831507432</v>
       </c>
       <c r="M2" t="n">
-        <v>63420.63831507431</v>
+        <v>63420.63831507432</v>
       </c>
       <c r="N2" t="n">
         <v>63420.63831507431</v>
       </c>
       <c r="O2" t="n">
+        <v>63420.63831507432</v>
+      </c>
+      <c r="P2" t="n">
         <v>63420.63831507431</v>
-      </c>
-      <c r="P2" t="n">
-        <v>63845.30909099025</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>262073.8944185649</v>
+        <v>273106.1670582839</v>
       </c>
       <c r="F3" t="n">
-        <v>10854.33430881218</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14645.03701041946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,7 +26426,7 @@
         <v>42308.02490896005</v>
       </c>
       <c r="E4" t="n">
-        <v>16500.08071234462</v>
+        <v>15189.00297443751</v>
       </c>
       <c r="F4" t="n">
         <v>15189.00297443751</v>
@@ -26459,7 +26459,7 @@
         <v>15189.00297443751</v>
       </c>
       <c r="P4" t="n">
-        <v>13179.28050539854</v>
+        <v>15189.00297443751</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7111.264083311508</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="F5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="G5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="H5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="I5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="J5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="K5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="L5" t="n">
         <v>7410.620126973125</v>
       </c>
       <c r="M5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="N5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="O5" t="n">
-        <v>7410.620126973124</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="P5" t="n">
-        <v>7890.297589542603</v>
+        <v>7410.620126973125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28339.09688638</v>
+        <v>-45143.55749422339</v>
       </c>
       <c r="C6" t="n">
-        <v>-28339.09688638</v>
+        <v>-45143.55749422339</v>
       </c>
       <c r="D6" t="n">
-        <v>-28339.09688638</v>
+        <v>-45143.55749422339</v>
       </c>
       <c r="E6" t="n">
-        <v>-222532.7094890329</v>
+        <v>-247331.3779755199</v>
       </c>
       <c r="F6" t="n">
-        <v>29966.6809048515</v>
+        <v>25774.78908276409</v>
       </c>
       <c r="G6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276408</v>
       </c>
       <c r="H6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276408</v>
       </c>
       <c r="I6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276408</v>
       </c>
       <c r="J6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276408</v>
       </c>
       <c r="K6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276408</v>
       </c>
       <c r="L6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276411</v>
       </c>
       <c r="M6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276411</v>
       </c>
       <c r="N6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.7890827641</v>
       </c>
       <c r="O6" t="n">
-        <v>40821.01521366368</v>
+        <v>25774.78908276411</v>
       </c>
       <c r="P6" t="n">
-        <v>28130.69398562964</v>
+        <v>25774.7890827641</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.2047744638306</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="F3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="G3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="H3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="I3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="J3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="K3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="L3" t="n">
         <v>339.9367030721617</v>
       </c>
       <c r="M3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="N3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="O3" t="n">
-        <v>339.9367030721616</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="P3" t="n">
-        <v>361.9402564010368</v>
+        <v>339.9367030721617</v>
       </c>
     </row>
     <row r="4">
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.2047744638306</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="F3" t="n">
-        <v>13.73192860833097</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.00355332887523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311375977744042</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H11" t="n">
-        <v>13.43012923207117</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55682238197722</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3013968910535</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K11" t="n">
-        <v>166.8119420289588</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L11" t="n">
-        <v>206.944964607843</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2661471520487</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N11" t="n">
-        <v>233.9920941488139</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O11" t="n">
-        <v>220.9520992701216</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5775048195655</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.613852616607</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R11" t="n">
-        <v>82.37572126196423</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88298009284238</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740548342574546</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H12" t="n">
-        <v>6.776442578956182</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I12" t="n">
-        <v>24.15761773151954</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J12" t="n">
-        <v>66.29034949740922</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K12" t="n">
-        <v>113.300765862593</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L12" t="n">
-        <v>152.3468618852069</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31855,25 +31855,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>166.9399094371643</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9839950057194</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.56475241505028</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R12" t="n">
-        <v>43.5637244085848</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03280396088983</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T12" t="n">
-        <v>2.828133846530757</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229971629928304</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68992449059593</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58843493451165</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K13" t="n">
-        <v>68.34257405979926</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45496527182765</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20899878819395</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01647489425679</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O13" t="n">
-        <v>83.1447841535023</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P13" t="n">
-        <v>71.14472654863609</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.25692094403843</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R13" t="n">
-        <v>26.4493248278378</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25138610896989</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T13" t="n">
-        <v>2.513381049147547</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03208571552103255</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I14" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J14" t="n">
         <v>115.9867447331493</v>
@@ -32013,22 +32013,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O14" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q14" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R14" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S14" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T14" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U14" t="n">
         <v>0.1093263768674288</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H15" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I15" t="n">
         <v>25.17455772751386</v>
@@ -32083,7 +32083,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L15" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32095,10 +32095,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R15" t="n">
         <v>45.39758461027851</v>
@@ -32110,7 +32110,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32159,37 +32159,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L16" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M16" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N16" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O16" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P16" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R16" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S16" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T16" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I17" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J17" t="n">
         <v>115.9867447331493</v>
@@ -32250,22 +32250,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O17" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q17" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R17" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S17" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T17" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U17" t="n">
         <v>0.1093263768674288</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H18" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I18" t="n">
         <v>25.17455772751386</v>
@@ -32320,7 +32320,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L18" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32332,10 +32332,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R18" t="n">
         <v>45.39758461027851</v>
@@ -32347,7 +32347,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32396,37 +32396,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K19" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L19" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M19" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N19" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O19" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P19" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R19" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S19" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T19" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I20" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J20" t="n">
         <v>115.9867447331493</v>
@@ -32487,22 +32487,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O20" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P20" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q20" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R20" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S20" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T20" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U20" t="n">
         <v>0.1093263768674288</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H21" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I21" t="n">
         <v>25.17455772751386</v>
@@ -32557,7 +32557,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L21" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32569,10 +32569,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R21" t="n">
         <v>45.39758461027851</v>
@@ -32584,7 +32584,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32633,37 +32633,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K22" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L22" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M22" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N22" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O22" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P22" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R22" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S22" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T22" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I23" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J23" t="n">
         <v>115.9867447331493</v>
@@ -32724,22 +32724,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O23" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P23" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q23" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R23" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S23" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T23" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U23" t="n">
         <v>0.1093263768674288</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H24" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I24" t="n">
         <v>25.17455772751386</v>
@@ -32794,7 +32794,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L24" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32806,10 +32806,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R24" t="n">
         <v>45.39758461027851</v>
@@ -32821,7 +32821,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,37 +32870,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K25" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L25" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M25" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N25" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O25" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P25" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R25" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S25" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T25" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I26" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J26" t="n">
         <v>115.9867447331493</v>
@@ -32961,22 +32961,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O26" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P26" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q26" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R26" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S26" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T26" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U26" t="n">
         <v>0.1093263768674288</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H27" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I27" t="n">
         <v>25.17455772751386</v>
@@ -33031,7 +33031,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L27" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33043,10 +33043,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R27" t="n">
         <v>45.39758461027851</v>
@@ -33058,7 +33058,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33107,37 +33107,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K28" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L28" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M28" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N28" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O28" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P28" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R28" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S28" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T28" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I29" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J29" t="n">
         <v>115.9867447331493</v>
@@ -33198,22 +33198,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O29" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P29" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q29" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R29" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S29" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T29" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U29" t="n">
         <v>0.1093263768674288</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H30" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I30" t="n">
         <v>25.17455772751386</v>
@@ -33268,7 +33268,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L30" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33280,10 +33280,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R30" t="n">
         <v>45.39758461027851</v>
@@ -33295,7 +33295,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33344,37 +33344,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K31" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L31" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M31" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N31" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O31" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P31" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R31" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S31" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T31" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33438,7 +33438,7 @@
         <v>230.2533072552751</v>
       </c>
       <c r="P32" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q32" t="n">
         <v>147.575234749282</v>
@@ -33450,7 +33450,7 @@
         <v>31.1409351608317</v>
       </c>
       <c r="T32" t="n">
-        <v>5.982202684214622</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U32" t="n">
         <v>0.1093263768674288</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H33" t="n">
         <v>7.061703963819812</v>
@@ -33517,7 +33517,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q33" t="n">
         <v>93.33507364351127</v>
@@ -33602,13 +33602,13 @@
         <v>51.33044216389641</v>
       </c>
       <c r="R34" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S34" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T34" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U34" t="n">
         <v>0.03343639702349135</v>
@@ -33654,7 +33654,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I35" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J35" t="n">
         <v>115.9867447331493</v>
@@ -33672,22 +33672,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O35" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P35" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q35" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R35" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S35" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T35" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U35" t="n">
         <v>0.1093263768674288</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H36" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I36" t="n">
         <v>25.17455772751386</v>
@@ -33742,7 +33742,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L36" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33754,10 +33754,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R36" t="n">
         <v>45.39758461027851</v>
@@ -33769,7 +33769,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33818,37 +33818,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K37" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L37" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M37" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N37" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O37" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P37" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R37" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S37" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T37" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I38" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J38" t="n">
         <v>115.9867447331493</v>
@@ -33909,22 +33909,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O38" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P38" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q38" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R38" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S38" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T38" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U38" t="n">
         <v>0.1093263768674288</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H39" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I39" t="n">
         <v>25.17455772751386</v>
@@ -33979,7 +33979,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L39" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33991,10 +33991,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R39" t="n">
         <v>45.39758461027851</v>
@@ -34006,7 +34006,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34055,37 +34055,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K40" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L40" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M40" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N40" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O40" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P40" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R40" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S40" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T40" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>13.99548446366944</v>
       </c>
       <c r="I41" t="n">
-        <v>52.6850643022694</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J41" t="n">
         <v>115.9867447331493</v>
@@ -34146,22 +34146,22 @@
         <v>243.8422342549688</v>
       </c>
       <c r="O41" t="n">
-        <v>230.253307255275</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P41" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q41" t="n">
         <v>147.575234749282</v>
       </c>
       <c r="R41" t="n">
-        <v>85.84341276123286</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S41" t="n">
         <v>31.1409351608317</v>
       </c>
       <c r="T41" t="n">
-        <v>5.982202684214621</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U41" t="n">
         <v>0.1093263768674288</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H42" t="n">
-        <v>7.061703963819811</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I42" t="n">
         <v>25.17455772751386</v>
@@ -34216,7 +34216,7 @@
         <v>118.0702792170545</v>
       </c>
       <c r="L42" t="n">
-        <v>158.7600611847864</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34228,10 +34228,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.33507364351125</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R42" t="n">
         <v>45.39758461027851</v>
@@ -34243,7 +34243,7 @@
         <v>2.947187076635061</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04810425043473987</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34292,37 +34292,37 @@
         <v>43.33914327528198</v>
       </c>
       <c r="K43" t="n">
-        <v>71.21952566003645</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L43" t="n">
-        <v>91.13647282036281</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M43" t="n">
-        <v>96.09063231267675</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N43" t="n">
-        <v>93.80581184940492</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O43" t="n">
-        <v>86.64485015354049</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P43" t="n">
-        <v>74.13963766675468</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.3304421638964</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R43" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S43" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T43" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03343639702349134</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.455036206637333</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H44" t="n">
-        <v>14.90138955122459</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I44" t="n">
-        <v>56.09528335638583</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J44" t="n">
-        <v>123.4943792430854</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K44" t="n">
-        <v>185.0860618700438</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L44" t="n">
-        <v>229.6156261789211</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M44" t="n">
-        <v>255.4916263187078</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N44" t="n">
-        <v>259.6257479408162</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O44" t="n">
-        <v>245.1572316610661</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P44" t="n">
-        <v>209.2360253097069</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.1275411595074</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R44" t="n">
-        <v>91.39991811518244</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S44" t="n">
-        <v>33.15663755874826</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T44" t="n">
-        <v>6.369420994554928</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1164028965309866</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H45" t="n">
-        <v>7.518796647123428</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I45" t="n">
-        <v>26.80406615800132</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J45" t="n">
-        <v>73.55240625598807</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K45" t="n">
-        <v>125.7127775463865</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34465,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>148.6618385206447</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.37650209712999</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R45" t="n">
-        <v>48.33609688314225</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S45" t="n">
-        <v>14.46053760243764</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T45" t="n">
-        <v>3.137953732382573</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H46" t="n">
-        <v>5.802910996069087</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I46" t="n">
-        <v>19.62784210122345</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J46" t="n">
-        <v>46.14441596771907</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K46" t="n">
-        <v>75.82945043943032</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L46" t="n">
-        <v>97.03558939643536</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M46" t="n">
-        <v>102.3104236249685</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N46" t="n">
-        <v>99.87771042620749</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O46" t="n">
-        <v>92.2532312544807</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P46" t="n">
-        <v>78.93857657638347</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.65297871655656</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R46" t="n">
-        <v>29.34682800261521</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S46" t="n">
-        <v>11.37441756591454</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T46" t="n">
-        <v>2.788720008335857</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
